--- a/mainPage/pvAccessConfig.xlsx
+++ b/mainPage/pvAccessConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24620" windowHeight="15620" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="pvAccess" sheetId="1" r:id="rId1"/>
@@ -306,9 +306,6 @@
     </r>
   </si>
   <si>
-    <t>First read:</t>
-  </si>
-  <si>
     <t>JNI context use system env. variables as default values.</t>
   </si>
   <si>
@@ -325,13 +322,16 @@
   </si>
   <si>
     <t>Location of user property file can be overriden by "gov.aps.jca.JCALibrary.properties" System property</t>
+  </si>
+  <si>
+    <t>First read (in order to understand this sheet):</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -385,6 +385,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -510,7 +523,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -537,10 +550,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="57"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="57" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="100">
     <cellStyle name="Bad" xfId="57" builtinId="27"/>
@@ -973,9 +987,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -1779,8 +1791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1800,9 +1812,9 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7">
-      <c r="B2" s="12" t="s">
-        <v>81</v>
+    <row r="2" spans="1:7" ht="20">
+      <c r="B2" s="13" t="s">
+        <v>87</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1810,8 +1822,8 @@
       <c r="F2" s="2"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
-      <c r="B3" s="12" t="s">
+    <row r="3" spans="1:7" ht="20">
+      <c r="B3" s="13" t="s">
         <v>75</v>
       </c>
       <c r="C3" s="2"/>
@@ -1835,7 +1847,7 @@
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="14" t="s">
         <v>79</v>
       </c>
       <c r="B6" s="8"/>
@@ -1860,11 +1872,11 @@
       <c r="B8" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>79</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -1874,12 +1886,12 @@
       <c r="B9" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="13"/>
+      <c r="C9" s="12"/>
       <c r="D9" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="1"/>
@@ -1887,7 +1899,7 @@
     <row r="10" spans="1:7">
       <c r="C10" s="11"/>
       <c r="D10" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -1896,7 +1908,7 @@
     <row r="11" spans="1:7">
       <c r="C11" s="2"/>
       <c r="D11" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -1974,7 +1986,7 @@
     </row>
     <row r="22" spans="2:7">
       <c r="B22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C22" s="2"/>
       <c r="F22" s="2"/>
